--- a/natmiOut/OldD0/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H2">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I2">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J2">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.20561225939693</v>
+        <v>8.269168666666666</v>
       </c>
       <c r="N2">
-        <v>3.20561225939693</v>
+        <v>24.807506</v>
       </c>
       <c r="O2">
-        <v>0.4577394851165908</v>
+        <v>0.671680253471746</v>
       </c>
       <c r="P2">
-        <v>0.4577394851165908</v>
+        <v>0.671680253471746</v>
       </c>
       <c r="Q2">
-        <v>195.3839645394093</v>
+        <v>1181.725008420262</v>
       </c>
       <c r="R2">
-        <v>195.3839645394093</v>
+        <v>10635.52507578236</v>
       </c>
       <c r="S2">
-        <v>0.1618237340165382</v>
+        <v>0.3745735190809131</v>
       </c>
       <c r="T2">
-        <v>0.1618237340165382</v>
+        <v>0.3745735190809132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H3">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I3">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J3">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.79752459819889</v>
+        <v>0.121294</v>
       </c>
       <c r="N3">
-        <v>3.79752459819889</v>
+        <v>0.363882</v>
       </c>
       <c r="O3">
-        <v>0.5422605148834093</v>
+        <v>0.009852354928133683</v>
       </c>
       <c r="P3">
-        <v>0.5422605148834093</v>
+        <v>0.009852354928133683</v>
       </c>
       <c r="Q3">
-        <v>231.4613719288727</v>
+        <v>17.33380451521333</v>
       </c>
       <c r="R3">
-        <v>231.4613719288727</v>
+        <v>156.00424063692</v>
       </c>
       <c r="S3">
-        <v>0.1917042863492822</v>
+        <v>0.005494327453561872</v>
       </c>
       <c r="T3">
-        <v>0.1917042863492822</v>
+        <v>0.005494327453561873</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>62.7545169567987</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H4">
-        <v>62.7545169567987</v>
+        <v>428.72206</v>
       </c>
       <c r="I4">
-        <v>0.3639912175653325</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J4">
-        <v>0.3639912175653325</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.20561225939693</v>
+        <v>3.920705666666667</v>
       </c>
       <c r="N4">
-        <v>3.20561225939693</v>
+        <v>11.762117</v>
       </c>
       <c r="O4">
-        <v>0.4577394851165908</v>
+        <v>0.3184673916001203</v>
       </c>
       <c r="P4">
-        <v>0.4577394851165908</v>
+        <v>0.3184673916001203</v>
       </c>
       <c r="Q4">
-        <v>201.1666488892465</v>
+        <v>560.2976700223355</v>
       </c>
       <c r="R4">
-        <v>201.1666488892465</v>
+        <v>5042.67903020102</v>
       </c>
       <c r="S4">
-        <v>0.1666131525153163</v>
+        <v>0.1775985686159436</v>
       </c>
       <c r="T4">
-        <v>0.1666131525153163</v>
+        <v>0.1775985686159437</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H5">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J5">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.79752459819889</v>
+        <v>8.269168666666666</v>
       </c>
       <c r="N5">
-        <v>3.79752459819889</v>
+        <v>24.807506</v>
       </c>
       <c r="O5">
-        <v>0.5422605148834093</v>
+        <v>0.671680253471746</v>
       </c>
       <c r="P5">
-        <v>0.5422605148834093</v>
+        <v>0.671680253471746</v>
       </c>
       <c r="Q5">
-        <v>238.3118217915324</v>
+        <v>528.9606018581179</v>
       </c>
       <c r="R5">
-        <v>238.3118217915324</v>
+        <v>4760.645416723061</v>
       </c>
       <c r="S5">
-        <v>0.1973780650500163</v>
+        <v>0.1676656012874101</v>
       </c>
       <c r="T5">
-        <v>0.1973780650500163</v>
+        <v>0.1676656012874101</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.7015700318019</v>
+        <v>63.967809</v>
       </c>
       <c r="H6">
-        <v>48.7015700318019</v>
+        <v>191.903427</v>
       </c>
       <c r="I6">
-        <v>0.2824807620688471</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J6">
-        <v>0.2824807620688471</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.20561225939693</v>
+        <v>0.121294</v>
       </c>
       <c r="N6">
-        <v>3.20561225939693</v>
+        <v>0.363882</v>
       </c>
       <c r="O6">
-        <v>0.4577394851165908</v>
+        <v>0.009852354928133683</v>
       </c>
       <c r="P6">
-        <v>0.4577394851165908</v>
+        <v>0.009852354928133683</v>
       </c>
       <c r="Q6">
-        <v>156.1183499458223</v>
+        <v>7.758911424846</v>
       </c>
       <c r="R6">
-        <v>156.1183499458223</v>
+        <v>69.83020282361399</v>
       </c>
       <c r="S6">
-        <v>0.1293025985847363</v>
+        <v>0.00245935622579978</v>
       </c>
       <c r="T6">
-        <v>0.1293025985847363</v>
+        <v>0.00245935622579978</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>48.7015700318019</v>
+        <v>63.967809</v>
       </c>
       <c r="H7">
-        <v>48.7015700318019</v>
+        <v>191.903427</v>
       </c>
       <c r="I7">
-        <v>0.2824807620688471</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J7">
-        <v>0.2824807620688471</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.79752459819889</v>
+        <v>3.920705666666667</v>
       </c>
       <c r="N7">
-        <v>3.79752459819889</v>
+        <v>11.762117</v>
       </c>
       <c r="O7">
-        <v>0.5422605148834093</v>
+        <v>0.3184673916001203</v>
       </c>
       <c r="P7">
-        <v>0.5422605148834093</v>
+        <v>0.3184673916001203</v>
       </c>
       <c r="Q7">
-        <v>184.9454101666736</v>
+        <v>250.798951230551</v>
       </c>
       <c r="R7">
-        <v>184.9454101666736</v>
+        <v>2257.190561074959</v>
       </c>
       <c r="S7">
-        <v>0.1531781634841109</v>
+        <v>0.07949619841744143</v>
       </c>
       <c r="T7">
-        <v>0.1531781634841109</v>
+        <v>0.07949619841744145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>49.38440333333333</v>
+      </c>
+      <c r="H8">
+        <v>148.15321</v>
+      </c>
+      <c r="I8">
+        <v>0.1927124289189298</v>
+      </c>
+      <c r="J8">
+        <v>0.1927124289189298</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8.269168666666666</v>
+      </c>
+      <c r="N8">
+        <v>24.807506</v>
+      </c>
+      <c r="O8">
+        <v>0.671680253471746</v>
+      </c>
+      <c r="P8">
+        <v>0.671680253471746</v>
+      </c>
+      <c r="Q8">
+        <v>408.3679606660288</v>
+      </c>
+      <c r="R8">
+        <v>3675.311645994259</v>
+      </c>
+      <c r="S8">
+        <v>0.1294411331034226</v>
+      </c>
+      <c r="T8">
+        <v>0.1294411331034226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>49.38440333333333</v>
+      </c>
+      <c r="H9">
+        <v>148.15321</v>
+      </c>
+      <c r="I9">
+        <v>0.1927124289189298</v>
+      </c>
+      <c r="J9">
+        <v>0.1927124289189298</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.121294</v>
+      </c>
+      <c r="N9">
+        <v>0.363882</v>
+      </c>
+      <c r="O9">
+        <v>0.009852354928133683</v>
+      </c>
+      <c r="P9">
+        <v>0.009852354928133683</v>
+      </c>
+      <c r="Q9">
+        <v>5.990031817913333</v>
+      </c>
+      <c r="R9">
+        <v>53.91028636122</v>
+      </c>
+      <c r="S9">
+        <v>0.00189867124877203</v>
+      </c>
+      <c r="T9">
+        <v>0.001898671248772031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>49.38440333333333</v>
+      </c>
+      <c r="H10">
+        <v>148.15321</v>
+      </c>
+      <c r="I10">
+        <v>0.1927124289189298</v>
+      </c>
+      <c r="J10">
+        <v>0.1927124289189298</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.920705666666667</v>
+      </c>
+      <c r="N10">
+        <v>11.762117</v>
+      </c>
+      <c r="O10">
+        <v>0.3184673916001203</v>
+      </c>
+      <c r="P10">
+        <v>0.3184673916001203</v>
+      </c>
+      <c r="Q10">
+        <v>193.6217099939522</v>
+      </c>
+      <c r="R10">
+        <v>1742.59538994557</v>
+      </c>
+      <c r="S10">
+        <v>0.06137262456673517</v>
+      </c>
+      <c r="T10">
+        <v>0.06137262456673517</v>
       </c>
     </row>
   </sheetData>
